--- a/Avaliação de Banehiros.xlsx
+++ b/Avaliação de Banehiros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0712da2f45be5ded/Documentos/Projetos/OCRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{D35E93C2-5303-4D33-9B56-5464975182C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{699C6F1F-400B-40FF-A875-2BDAA999CDDF}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{D35E93C2-5303-4D33-9B56-5464975182C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F9AFA04-A2A8-48C5-AB48-411BDBA87EBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DB2E1750-8458-4CB0-8EFA-C92331F2C0BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Banheiro</t>
   </si>
@@ -157,12 +157,39 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Posto BR - Parque dos Patins</t>
+  </si>
+  <si>
+    <t>Av. Borges de Medeiros, S/N - Lagoa, Rio de Janeiro - RJ, 22470-001</t>
+  </si>
+  <si>
+    <t>2QHJ+8X Lagoa, Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Bom banheiro, tem que pegar a chave na loja. As vezes não tem papel.</t>
+  </si>
+  <si>
+    <t>Av. Borges de Medeiros, 3151 - Lagoa, Rio de Janeiro - RJ, 22470-001</t>
+  </si>
+  <si>
+    <t>Posto Ipiranga - Clube Militar</t>
+  </si>
+  <si>
+    <t>2QPQ+X8 Lagoa, Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Simples bem feito. Banheiro limpo e espaçoso, mas tem que pegar a chave na loja.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,14 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -210,7 +233,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,9 +246,26 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="0.0000000000000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="0.0000000000000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -232,23 +276,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -280,22 +307,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A469BD78-EB8B-4C70-B1DB-9CDB8EDC67B4}" name="dBathrooms" displayName="dBathrooms" ref="A1:M7" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M7" xr:uid="{A469BD78-EB8B-4C70-B1DB-9CDB8EDC67B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A469BD78-EB8B-4C70-B1DB-9CDB8EDC67B4}" name="dBathrooms" displayName="dBathrooms" ref="A1:M9" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:M9" xr:uid="{A469BD78-EB8B-4C70-B1DB-9CDB8EDC67B4}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{A5DCCB95-BD77-4588-A262-017E1601B69D}" name="Banheiro" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{80D65379-79EE-4F3A-9E83-FEB07DE064DF}" name="Bairro" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{920E53AC-A34F-42D3-9018-2BE65460ADFA}" name="Endereço" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DA94DD54-5FF6-4A11-8A7F-8B934B7EDACE}" name="Plus Code" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{92716632-D336-43B7-8A70-82DB5CC45C75}" name="Latitude" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{74BD5AE5-1966-4639-9948-1EC806A52275}" name="Longitude" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{CDF249B7-ADE2-4E03-BCF1-F7F941189482}" name="Limpeza" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8620BDEA-AD5C-4C3A-9170-A11C68CD7E20}" name="Facilidade/Disponibilidade" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B73FFFDC-51F3-45D0-8C98-E17A5E907D78}" name="Atendimento" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{7F683528-5388-4691-A544-6C47EF434C1D}" name="Proximidade da Pista" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{F3113D84-EE44-469C-BE70-E3CA5F9564EE}" name="Preço" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B96C0A6B-D290-4CAF-B298-C2CC8E7805AE}" name="Comentários" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{ADB042D9-57B5-4573-83C8-E05E462F86D8}" name="Avaliador" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DA94DD54-5FF6-4A11-8A7F-8B934B7EDACE}" name="Plus Code" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{92716632-D336-43B7-8A70-82DB5CC45C75}" name="Latitude" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{74BD5AE5-1966-4639-9948-1EC806A52275}" name="Longitude" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CDF249B7-ADE2-4E03-BCF1-F7F941189482}" name="Limpeza" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{8620BDEA-AD5C-4C3A-9170-A11C68CD7E20}" name="Facilidade/Disponibilidade" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B73FFFDC-51F3-45D0-8C98-E17A5E907D78}" name="Atendimento" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{7F683528-5388-4691-A544-6C47EF434C1D}" name="Proximidade da Pista" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{F3113D84-EE44-469C-BE70-E3CA5F9564EE}" name="Preço" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{B96C0A6B-D290-4CAF-B298-C2CC8E7805AE}" name="Comentários" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{ADB042D9-57B5-4573-83C8-E05E462F86D8}" name="Avaliador" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,11 +662,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E984EE-85E0-48D3-9E3F-1EAEA14B7090}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,14 +672,14 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="49.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,10 +696,10 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G1" t="s">
@@ -692,7 +717,7 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
@@ -700,248 +725,330 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>-22.9806791348418</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>-43.206312504596298</v>
       </c>
-      <c r="G2" s="6">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>-22.973124798948</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>-43.207676775760802</v>
       </c>
-      <c r="G3" s="6">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="J3" s="6">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6">
-        <v>3</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>-22.972664310037299</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>-43.203062504596701</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>-22.964279422306898</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>-43.173323233432598</v>
       </c>
-      <c r="G5" s="6">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>-22.9307505063117</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>-43.173361985960902</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>-22.920072258475798</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>-43.169344235311499</v>
       </c>
-      <c r="G7" s="6">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>5</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-22.9713870960151</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-43.217615465575697</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-22.962203298575901</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-43.211665891569098</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
